--- a/SmartDen_Budget.xlsx
+++ b/SmartDen_Budget.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samfatuga/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samfatuga/Documents/SmartDenProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="13180"/>
+    <workbookView xWindow="2280" yWindow="660" windowWidth="23260" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Parts</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Reference Number</t>
   </si>
   <si>
-    <t>Red,Blue,Green LEDs. Produces over 16 million hues of light.</t>
-  </si>
-  <si>
     <t>YSL-R596CR3G4B5C-C10</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve"> Micro Controller Shop</t>
   </si>
   <si>
-    <t xml:space="preserve">Arduino Uno </t>
-  </si>
-  <si>
     <t>STM32 Blue Pill</t>
   </si>
   <si>
@@ -90,13 +84,26 @@
   </si>
   <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>Red,Blue,Green LEDs. Produces over 16 million hues of light. Price includes $25CAD duty</t>
+  </si>
+  <si>
+    <t>Humber Parts kit</t>
+  </si>
+  <si>
+    <t>Humbber college</t>
+  </si>
+  <si>
+    <t>Parts kit includes wires, resistors and breadboard needed for the project (Already own)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -156,12 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +490,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -525,36 +533,36 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="2">
-        <v>2.58</v>
+        <v>43.62</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>20</v>
@@ -563,17 +571,31 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
@@ -581,13 +603,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f>SUM(D2:D4)</f>
-        <v>22.58</v>
+        <v>63.62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
